--- a/DateBase/orders/Dang Nguyen_2025-10-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-26.xlsx
@@ -524,6 +524,9 @@
       <c r="C11" t="str">
         <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -585,7 +588,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02055404020510200</v>
+        <v>02055404020510201</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-26.xlsx
@@ -525,7 +525,7 @@
         <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +588,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02055404020510201</v>
+        <v>020554040205102010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -528,9 +528,93 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>3</v>
+      </c>
+      <c r="C14" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F15" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F17" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>4</v>
+      </c>
+      <c r="C18" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>389_金合欢_mimosa_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -588,7 +672,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020554040205102010</v>
+        <v>0205540402051020101510151519151020100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,10 +611,48 @@
       <c r="C21" t="str">
         <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F22" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F23" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>5</v>
+      </c>
+      <c r="C24" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L25"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -672,7 +710,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0205540402051020101510151519151020100</v>
+        <v>0205540402051020101510151519151020102015151515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,70 +443,67 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>462_五针松_undefined_undefined_1bunch</v>
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
       </c>
       <c r="F2" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
-        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
       </c>
       <c r="F3" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
       </c>
       <c r="F4" t="str">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="str">
-        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
       </c>
       <c r="F5" t="str">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
       </c>
       <c r="F6" t="str">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="str">
-        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
       </c>
       <c r="F7" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="C8" t="str" xml:space="preserve">
-        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
-white_Trachymene Coerulea_1bunch</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="str">
+        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
       </c>
       <c r="F8" t="str">
         <v>5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>1</v>
-      </c>
       <c r="C9" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+        <v>592_进口春兰叶_undefined_undefined_1bunch</v>
       </c>
       <c r="F9" t="str">
         <v>10</v>
@@ -514,145 +511,293 @@
     </row>
     <row r="10">
       <c r="C10" t="str">
-        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
       </c>
       <c r="F10" t="str">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="str">
-        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
       </c>
       <c r="F11" t="str">
         <v>10</v>
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="str">
+        <v>2</v>
+      </c>
       <c r="C12" t="str">
-        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
       </c>
       <c r="F12" t="str">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="str">
-        <v>577_腊梅白_wax white_undefined_1bunch</v>
+        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
       </c>
       <c r="F13" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>3</v>
-      </c>
       <c r="C14" t="str">
-        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
       </c>
       <c r="F14" t="str">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="str">
-        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
       </c>
       <c r="F15" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="str">
-        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
       </c>
       <c r="F16" t="str">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="str">
-        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F17" t="str">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
-        <v>4</v>
-      </c>
       <c r="C18" t="str">
-        <v>328_卢荀草_undefined_undefined_1bunch</v>
+        <v>331_猫尾草_cat tail grass_undefined_1bunch</v>
       </c>
       <c r="F18" t="str">
         <v>10</v>
       </c>
     </row>
-    <row r="19" xml:space="preserve">
-      <c r="C19" t="str" xml:space="preserve">
-        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
-white_Trachymene Coerulea_1bunch</v>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
       </c>
       <c r="F19" t="str">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <v>3</v>
+      </c>
       <c r="C20" t="str">
-        <v>389_金合欢_mimosa_undefined_1bunch</v>
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F20" t="str">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="str">
-        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F21" t="str">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="str">
-        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
       </c>
       <c r="F22" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="str">
-        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>244_繁星_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F23" t="str">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="str">
-        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F24" t="str">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="str">
-        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F25" t="str">
-        <v>15</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>5</v>
+      </c>
+      <c r="C27" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F27" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>6</v>
+      </c>
+      <c r="C33" t="str">
+        <v>656_大丽花 梅根_undefined_undefined_5stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>7</v>
+      </c>
+      <c r="C34" t="str">
+        <v>82_非洲菊绿 绿扣子_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>424_鼠尾白色_veronica white_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="C37" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>544_空气草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F39" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>8</v>
+      </c>
+      <c r="C40" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>75_爱心_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L42"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -710,7 +855,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0205540402051020101510151519151020102015151515</v>
+        <v>010625155551010010555106580105222310182111247401016810451051055308510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-26.xlsx
@@ -857,6 +857,9 @@
       <c r="G2" t="str">
         <v>010625155551010010555106580105222310182111247401016810451051055308510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
